--- a/artfynd/A 62137-2025 artfynd.xlsx
+++ b/artfynd/A 62137-2025 artfynd.xlsx
@@ -1832,7 +1832,7 @@
         <v>130217838</v>
       </c>
       <c r="B13" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
